--- a/Code/Results/Cases/Case_4_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9990438556871286</v>
+        <v>1.033704477849932</v>
       </c>
       <c r="D2">
-        <v>1.020346054550965</v>
+        <v>1.040454095084078</v>
       </c>
       <c r="E2">
-        <v>1.007225857317301</v>
+        <v>1.037347739083005</v>
       </c>
       <c r="F2">
-        <v>1.024583797659419</v>
+        <v>1.049369600783932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043996142236392</v>
+        <v>1.035357102243254</v>
       </c>
       <c r="J2">
-        <v>1.021253202523933</v>
+        <v>1.038827742878673</v>
       </c>
       <c r="K2">
-        <v>1.031529030870316</v>
+        <v>1.043236398255807</v>
       </c>
       <c r="L2">
-        <v>1.018585434071312</v>
+        <v>1.04013888146677</v>
       </c>
       <c r="M2">
-        <v>1.035710944403487</v>
+        <v>1.052126849879535</v>
       </c>
       <c r="N2">
-        <v>1.022703499210896</v>
+        <v>1.040302997428768</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003945927701661</v>
+        <v>1.034744829903986</v>
       </c>
       <c r="D3">
-        <v>1.023900697778949</v>
+        <v>1.041226758718673</v>
       </c>
       <c r="E3">
-        <v>1.01161928220339</v>
+        <v>1.038336371803252</v>
       </c>
       <c r="F3">
-        <v>1.028695572704359</v>
+        <v>1.050283604881784</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045130330896932</v>
+        <v>1.035534362075435</v>
       </c>
       <c r="J3">
-        <v>1.02432959771284</v>
+        <v>1.039510459682119</v>
       </c>
       <c r="K3">
-        <v>1.034236632017738</v>
+        <v>1.043819587881565</v>
       </c>
       <c r="L3">
-        <v>1.022105619847089</v>
+        <v>1.040936829677618</v>
       </c>
       <c r="M3">
-        <v>1.038973995729336</v>
+        <v>1.052852823457393</v>
       </c>
       <c r="N3">
-        <v>1.025784263233839</v>
+        <v>1.040986683768384</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007051261111018</v>
+        <v>1.035418416309605</v>
       </c>
       <c r="D4">
-        <v>1.026155101340723</v>
+        <v>1.041726893472858</v>
       </c>
       <c r="E4">
-        <v>1.0144082099186</v>
+        <v>1.038976844590581</v>
       </c>
       <c r="F4">
-        <v>1.03130502314815</v>
+        <v>1.050875513135181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045838446259898</v>
+        <v>1.035647802142055</v>
       </c>
       <c r="J4">
-        <v>1.026276298742341</v>
+        <v>1.039952061307971</v>
       </c>
       <c r="K4">
-        <v>1.035947781904462</v>
+        <v>1.044196461196129</v>
       </c>
       <c r="L4">
-        <v>1.024335795900843</v>
+        <v>1.04145330439039</v>
       </c>
       <c r="M4">
-        <v>1.041039753325583</v>
+        <v>1.0533224322373</v>
       </c>
       <c r="N4">
-        <v>1.027733728802092</v>
+        <v>1.041428912519197</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008341399296814</v>
+        <v>1.035701689674384</v>
       </c>
       <c r="D5">
-        <v>1.027092276249061</v>
+        <v>1.04193718974466</v>
       </c>
       <c r="E5">
-        <v>1.01556824597504</v>
+        <v>1.039246280863105</v>
       </c>
       <c r="F5">
-        <v>1.032390215832396</v>
+        <v>1.051124466812794</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04613010709343</v>
+        <v>1.035695190564808</v>
       </c>
       <c r="J5">
-        <v>1.027084525270622</v>
+        <v>1.040137671312515</v>
       </c>
       <c r="K5">
-        <v>1.036657670450241</v>
+        <v>1.044354780871201</v>
       </c>
       <c r="L5">
-        <v>1.025262355712252</v>
+        <v>1.041670465350216</v>
       </c>
       <c r="M5">
-        <v>1.041897619214275</v>
+        <v>1.053519820292201</v>
       </c>
       <c r="N5">
-        <v>1.028543103104747</v>
+        <v>1.041614786111238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008557136490596</v>
+        <v>1.035749258236136</v>
       </c>
       <c r="D6">
-        <v>1.027249022009503</v>
+        <v>1.041972501708105</v>
       </c>
       <c r="E6">
-        <v>1.01576230571093</v>
+        <v>1.039291531021201</v>
       </c>
       <c r="F6">
-        <v>1.032571743228086</v>
+        <v>1.051166273971079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046178728538776</v>
+        <v>1.035703129581348</v>
       </c>
       <c r="J6">
-        <v>1.027219643750974</v>
+        <v>1.040168833726378</v>
       </c>
       <c r="K6">
-        <v>1.036776316462851</v>
+        <v>1.044381356508918</v>
       </c>
       <c r="L6">
-        <v>1.025417294850153</v>
+        <v>1.041706929664016</v>
       </c>
       <c r="M6">
-        <v>1.042041048215859</v>
+        <v>1.053552960510373</v>
       </c>
       <c r="N6">
-        <v>1.02867841346884</v>
+        <v>1.041645992779302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007068559509712</v>
+        <v>1.035422201038863</v>
       </c>
       <c r="D7">
-        <v>1.026167665009635</v>
+        <v>1.041729703307519</v>
       </c>
       <c r="E7">
-        <v>1.014423758600531</v>
+        <v>1.038980444098951</v>
       </c>
       <c r="F7">
-        <v>1.031319569445892</v>
+        <v>1.05087883921405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045842366961653</v>
+        <v>1.035648436534769</v>
       </c>
       <c r="J7">
-        <v>1.026287137800821</v>
+        <v>1.039954541593163</v>
       </c>
       <c r="K7">
-        <v>1.035957304328408</v>
+        <v>1.044198577135401</v>
       </c>
       <c r="L7">
-        <v>1.02434821937804</v>
+        <v>1.041456205969084</v>
       </c>
       <c r="M7">
-        <v>1.041051257285773</v>
+        <v>1.053325069886604</v>
       </c>
       <c r="N7">
-        <v>1.027744583253278</v>
+        <v>1.041431396326678</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000714707987633</v>
+        <v>1.034055984823216</v>
       </c>
       <c r="D8">
-        <v>1.021557046537015</v>
+        <v>1.040715184629612</v>
       </c>
       <c r="E8">
-        <v>1.008722094064698</v>
+        <v>1.037681694056214</v>
       </c>
       <c r="F8">
-        <v>1.025984242639803</v>
+        <v>1.049678391406539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044384872005186</v>
+        <v>1.035417268456694</v>
       </c>
       <c r="J8">
-        <v>1.022302198380757</v>
+        <v>1.039058503368613</v>
       </c>
       <c r="K8">
-        <v>1.03245272141007</v>
+        <v>1.04343359082056</v>
       </c>
       <c r="L8">
-        <v>1.019785201113815</v>
+        <v>1.040408520587768</v>
       </c>
       <c r="M8">
-        <v>1.036823378322093</v>
+        <v>1.052372225497585</v>
       </c>
       <c r="N8">
-        <v>1.023753984762159</v>
+        <v>1.040534085625072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9889789699738963</v>
+        <v>1.031651682801451</v>
       </c>
       <c r="D9">
-        <v>1.013065404357545</v>
+        <v>1.03892881731193</v>
       </c>
       <c r="E9">
-        <v>0.9982393622950683</v>
+        <v>1.035398994045857</v>
       </c>
       <c r="F9">
-        <v>1.016170851241518</v>
+        <v>1.047566819644705</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041612387084818</v>
+        <v>1.035000296673484</v>
       </c>
       <c r="J9">
-        <v>1.014927003247573</v>
+        <v>1.037478355992436</v>
       </c>
       <c r="K9">
-        <v>1.025950002318265</v>
+        <v>1.042081870418607</v>
       </c>
       <c r="L9">
-        <v>1.011361069350842</v>
+        <v>1.038563533629493</v>
       </c>
       <c r="M9">
-        <v>1.029006904856979</v>
+        <v>1.050692120972176</v>
       </c>
       <c r="N9">
-        <v>1.016368316005939</v>
+        <v>1.038951694258376</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9807488688230401</v>
+        <v>1.030050944233162</v>
       </c>
       <c r="D10">
-        <v>1.007131763426523</v>
+        <v>1.037738868172419</v>
       </c>
       <c r="E10">
-        <v>0.9909239472873193</v>
+        <v>1.033881178768442</v>
       </c>
       <c r="F10">
-        <v>1.00932159276304</v>
+        <v>1.0461616992223</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03961667803274</v>
+        <v>1.034715867936504</v>
       </c>
       <c r="J10">
-        <v>1.009747667644164</v>
+        <v>1.036424141642261</v>
       </c>
       <c r="K10">
-        <v>1.021373434616307</v>
+        <v>1.041178265458479</v>
       </c>
       <c r="L10">
-        <v>1.005459029344372</v>
+        <v>1.037334364761797</v>
       </c>
       <c r="M10">
-        <v>1.023524558199834</v>
+        <v>1.049571379839915</v>
       </c>
       <c r="N10">
-        <v>1.011181625151895</v>
+        <v>1.037895982802904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9770781245073235</v>
+        <v>1.029358314123711</v>
       </c>
       <c r="D11">
-        <v>1.004491540115112</v>
+        <v>1.03722384729763</v>
       </c>
       <c r="E11">
-        <v>0.9876704690189307</v>
+        <v>1.033224901501573</v>
       </c>
       <c r="F11">
-        <v>1.006275662345474</v>
+        <v>1.045553893807326</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038715091456347</v>
+        <v>1.034591182574201</v>
       </c>
       <c r="J11">
-        <v>1.007436579207315</v>
+        <v>1.035967476051817</v>
       </c>
       <c r="K11">
-        <v>1.019329246761556</v>
+        <v>1.04078641976899</v>
       </c>
       <c r="L11">
-        <v>1.002828709141437</v>
+        <v>1.036802323388899</v>
       </c>
       <c r="M11">
-        <v>1.021080191412646</v>
+        <v>1.049085937119783</v>
       </c>
       <c r="N11">
-        <v>1.008867254704381</v>
+        <v>1.037438668694942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9756975734832356</v>
+        <v>1.029101115706081</v>
       </c>
       <c r="D12">
-        <v>1.003499611967809</v>
+        <v>1.037032581829761</v>
       </c>
       <c r="E12">
-        <v>0.9864483175757284</v>
+        <v>1.032981273754749</v>
       </c>
       <c r="F12">
-        <v>1.005131550478379</v>
+        <v>1.045328222021445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038374350012238</v>
+        <v>1.034544639978474</v>
       </c>
       <c r="J12">
-        <v>1.006567295762337</v>
+        <v>1.035797822966018</v>
       </c>
       <c r="K12">
-        <v>1.018560070665809</v>
+        <v>1.040640784488387</v>
       </c>
       <c r="L12">
-        <v>1.00183983472155</v>
+        <v>1.036604729629845</v>
       </c>
       <c r="M12">
-        <v>1.020161094036278</v>
+        <v>1.04890559961558</v>
       </c>
       <c r="N12">
-        <v>1.007996736777202</v>
+        <v>1.0372687746823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9759944956899133</v>
+        <v>1.029156282233327</v>
       </c>
       <c r="D13">
-        <v>1.0037129019112</v>
+        <v>1.037073607268303</v>
       </c>
       <c r="E13">
-        <v>0.9867111044983116</v>
+        <v>1.033033526259336</v>
       </c>
       <c r="F13">
-        <v>1.005377553245088</v>
+        <v>1.04537662510787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03844770888216</v>
+        <v>1.03455463387601</v>
       </c>
       <c r="J13">
-        <v>1.006754260202464</v>
+        <v>1.035834215350055</v>
       </c>
       <c r="K13">
-        <v>1.018725516511927</v>
+        <v>1.040672027647914</v>
       </c>
       <c r="L13">
-        <v>1.002052498870549</v>
+        <v>1.03664711279163</v>
       </c>
       <c r="M13">
-        <v>1.020358757631351</v>
+        <v>1.048944283627113</v>
       </c>
       <c r="N13">
-        <v>1.008183966728279</v>
+        <v>1.037305218747697</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9769643620083514</v>
+        <v>1.029337052486791</v>
       </c>
       <c r="D14">
-        <v>1.004409779634087</v>
+        <v>1.037208036490287</v>
       </c>
       <c r="E14">
-        <v>0.9875697289882995</v>
+        <v>1.03320476023837</v>
       </c>
       <c r="F14">
-        <v>1.006181353217454</v>
+        <v>1.045535237780034</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038687046423561</v>
+        <v>1.03458734001625</v>
       </c>
       <c r="J14">
-        <v>1.007364948568411</v>
+        <v>1.035953453026032</v>
       </c>
       <c r="K14">
-        <v>1.019265870768076</v>
+        <v>1.040774383269135</v>
       </c>
       <c r="L14">
-        <v>1.002747214174025</v>
+        <v>1.036785989610171</v>
       </c>
       <c r="M14">
-        <v>1.021004449409351</v>
+        <v>1.049071030819424</v>
       </c>
       <c r="N14">
-        <v>1.008795522341753</v>
+        <v>1.037424625754851</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9775596354119066</v>
+        <v>1.029448440979431</v>
       </c>
       <c r="D15">
-        <v>1.004837642719721</v>
+        <v>1.037290867597112</v>
       </c>
       <c r="E15">
-        <v>0.9880969212829467</v>
+        <v>1.033310282091706</v>
       </c>
       <c r="F15">
-        <v>1.0066748946631</v>
+        <v>1.045632976792896</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038833727608016</v>
+        <v>1.034607461027341</v>
       </c>
       <c r="J15">
-        <v>1.007739759474382</v>
+        <v>1.036026915709501</v>
       </c>
       <c r="K15">
-        <v>1.019597477433915</v>
+        <v>1.040837436522308</v>
       </c>
       <c r="L15">
-        <v>1.003173660350486</v>
+        <v>1.036871560205199</v>
       </c>
       <c r="M15">
-        <v>1.021400786310922</v>
+        <v>1.049149120993159</v>
       </c>
       <c r="N15">
-        <v>1.009170865522202</v>
+        <v>1.037498192763757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9809901457793859</v>
+        <v>1.030096922359469</v>
       </c>
       <c r="D16">
-        <v>1.00730544389317</v>
+        <v>1.037773053440218</v>
       </c>
       <c r="E16">
-        <v>0.991137996960277</v>
+        <v>1.033924753728515</v>
       </c>
       <c r="F16">
-        <v>1.009521995818491</v>
+        <v>1.046202050427316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039675705617329</v>
+        <v>1.034724110774606</v>
       </c>
       <c r="J16">
-        <v>1.009899558497256</v>
+        <v>1.03645444520023</v>
       </c>
       <c r="K16">
-        <v>1.021507743313272</v>
+        <v>1.041204258824255</v>
       </c>
       <c r="L16">
-        <v>1.005631968200698</v>
+        <v>1.037369678787417</v>
       </c>
       <c r="M16">
-        <v>1.023685250860898</v>
+        <v>1.049603593883906</v>
       </c>
       <c r="N16">
-        <v>1.011333731707421</v>
+        <v>1.037926329395401</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9831126776049729</v>
+        <v>1.030503831588475</v>
       </c>
       <c r="D17">
-        <v>1.008834049312311</v>
+        <v>1.03807557943216</v>
       </c>
       <c r="E17">
-        <v>0.9930220743419743</v>
+        <v>1.034310449458</v>
       </c>
       <c r="F17">
-        <v>1.011285985622414</v>
+        <v>1.046559182184841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040193678748745</v>
+        <v>1.034796873807541</v>
       </c>
       <c r="J17">
-        <v>1.011235643984818</v>
+        <v>1.036722574268114</v>
       </c>
       <c r="K17">
-        <v>1.022688938528939</v>
+        <v>1.041434202238134</v>
       </c>
       <c r="L17">
-        <v>1.00715356816106</v>
+        <v>1.037682188485174</v>
       </c>
       <c r="M17">
-        <v>1.025098982628465</v>
+        <v>1.049888631899171</v>
       </c>
       <c r="N17">
-        <v>1.012671714589626</v>
+        <v>1.038194839237316</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9843404558690888</v>
+        <v>1.03074122311853</v>
       </c>
       <c r="D18">
-        <v>1.009718857606421</v>
+        <v>1.038252060333225</v>
       </c>
       <c r="E18">
-        <v>0.9941127956695303</v>
+        <v>1.034535510559544</v>
       </c>
       <c r="F18">
-        <v>1.012307205232183</v>
+        <v>1.04676755095332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040492208431173</v>
+        <v>1.034839168009071</v>
       </c>
       <c r="J18">
-        <v>1.01200840063686</v>
+        <v>1.036878951649815</v>
       </c>
       <c r="K18">
-        <v>1.023371913480551</v>
+        <v>1.041568268456369</v>
       </c>
       <c r="L18">
-        <v>1.00803392965183</v>
+        <v>1.037864489063584</v>
       </c>
       <c r="M18">
-        <v>1.025916828816507</v>
+        <v>1.050054874802932</v>
       </c>
       <c r="N18">
-        <v>1.01344556864475</v>
+        <v>1.038351438692836</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9847573852877509</v>
+        <v>1.030822175678891</v>
       </c>
       <c r="D19">
-        <v>1.010019417579207</v>
+        <v>1.038312239566665</v>
       </c>
       <c r="E19">
-        <v>0.9944833299902189</v>
+        <v>1.034612266047957</v>
       </c>
       <c r="F19">
-        <v>1.01265413078898</v>
+        <v>1.046838609443679</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040593396176147</v>
+        <v>1.034853564253263</v>
       </c>
       <c r="J19">
-        <v>1.012270794587193</v>
+        <v>1.036932269268092</v>
       </c>
       <c r="K19">
-        <v>1.023603787317332</v>
+        <v>1.041613972074625</v>
       </c>
       <c r="L19">
-        <v>1.008332913848345</v>
+        <v>1.03792665204972</v>
       </c>
       <c r="M19">
-        <v>1.026194563098177</v>
+        <v>1.0501115567792</v>
       </c>
       <c r="N19">
-        <v>1.01370833522459</v>
+        <v>1.038404832028247</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.982886018032208</v>
+        <v>1.030460169086556</v>
       </c>
       <c r="D20">
-        <v>1.00867075195354</v>
+        <v>1.038043118911149</v>
       </c>
       <c r="E20">
-        <v>0.9928207872020555</v>
+        <v>1.034269058507526</v>
       </c>
       <c r="F20">
-        <v>1.011097525911795</v>
+        <v>1.046520859129256</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040138478607407</v>
+        <v>1.034789082250447</v>
       </c>
       <c r="J20">
-        <v>1.011092977080246</v>
+        <v>1.036693808391014</v>
       </c>
       <c r="K20">
-        <v>1.022562831057905</v>
+        <v>1.041409537261955</v>
       </c>
       <c r="L20">
-        <v>1.006991060117585</v>
+        <v>1.037648657187335</v>
       </c>
       <c r="M20">
-        <v>1.024948005705127</v>
+        <v>1.049858051558493</v>
       </c>
       <c r="N20">
-        <v>1.012528845081685</v>
+        <v>1.038166032509371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9766792401844853</v>
+        <v>1.029283818074887</v>
       </c>
       <c r="D21">
-        <v>1.004204881410251</v>
+        <v>1.037168449427863</v>
       </c>
       <c r="E21">
-        <v>0.9873172691308147</v>
+        <v>1.033154332151144</v>
       </c>
       <c r="F21">
-        <v>1.005945010901141</v>
+        <v>1.045488527693495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038616730948587</v>
+        <v>1.034577715189166</v>
       </c>
       <c r="J21">
-        <v>1.007185420124169</v>
+        <v>1.035918341248179</v>
       </c>
       <c r="K21">
-        <v>1.019107026532689</v>
+        <v>1.040744244468459</v>
       </c>
       <c r="L21">
-        <v>1.002542970457178</v>
+        <v>1.036745093013538</v>
       </c>
       <c r="M21">
-        <v>1.020814621817481</v>
+        <v>1.049033707544574</v>
       </c>
       <c r="N21">
-        <v>1.008615738946528</v>
+        <v>1.037389464114246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9726774651500845</v>
+        <v>1.028544634892505</v>
       </c>
       <c r="D22">
-        <v>1.001331711030694</v>
+        <v>1.036618719998315</v>
       </c>
       <c r="E22">
-        <v>0.9837775066174846</v>
+        <v>1.032454286242269</v>
       </c>
       <c r="F22">
-        <v>1.002631468270016</v>
+        <v>1.044840005454605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037625963758319</v>
+        <v>1.034443496149948</v>
       </c>
       <c r="J22">
-        <v>1.004665541682227</v>
+        <v>1.035430617412739</v>
       </c>
       <c r="K22">
-        <v>1.01687683254741</v>
+        <v>1.0403254492234</v>
       </c>
       <c r="L22">
-        <v>0.9996773330052048</v>
+        <v>1.036177160740331</v>
       </c>
       <c r="M22">
-        <v>1.018150974885907</v>
+        <v>1.048515280142107</v>
       </c>
       <c r="N22">
-        <v>1.006092281988165</v>
+        <v>1.036901047655016</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9748086477676521</v>
+        <v>1.02893644858312</v>
       </c>
       <c r="D23">
-        <v>1.002861226720299</v>
+        <v>1.036910121759466</v>
       </c>
       <c r="E23">
-        <v>0.98566180677602</v>
+        <v>1.032825315248924</v>
       </c>
       <c r="F23">
-        <v>1.004395288331197</v>
+        <v>1.045183747352199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038154490320044</v>
+        <v>1.034514773605094</v>
       </c>
       <c r="J23">
-        <v>1.006007552897516</v>
+        <v>1.035689183759354</v>
       </c>
       <c r="K23">
-        <v>1.01806471170715</v>
+        <v>1.040547507626772</v>
       </c>
       <c r="L23">
-        <v>1.001203221395774</v>
+        <v>1.03647821568003</v>
       </c>
       <c r="M23">
-        <v>1.019569368147698</v>
+        <v>1.048790120356216</v>
       </c>
       <c r="N23">
-        <v>1.007436199013309</v>
+        <v>1.037159981195502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9829884673664231</v>
+        <v>1.03047989814251</v>
       </c>
       <c r="D24">
-        <v>1.008744559977279</v>
+        <v>1.038057786353542</v>
       </c>
       <c r="E24">
-        <v>0.9929117655709061</v>
+        <v>1.034287761014254</v>
       </c>
       <c r="F24">
-        <v>1.011182706445179</v>
+        <v>1.046538175483571</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040163432268965</v>
+        <v>1.034792603374685</v>
       </c>
       <c r="J24">
-        <v>1.011157462342592</v>
+        <v>1.036706806507541</v>
       </c>
       <c r="K24">
-        <v>1.02261983209072</v>
+        <v>1.041420682475684</v>
       </c>
       <c r="L24">
-        <v>1.007064512593864</v>
+        <v>1.037663808478893</v>
       </c>
       <c r="M24">
-        <v>1.025016246526331</v>
+        <v>1.049871869544337</v>
       </c>
       <c r="N24">
-        <v>1.012593421920501</v>
+        <v>1.038179049084715</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920811646793485</v>
+        <v>1.03227287826072</v>
       </c>
       <c r="D25">
-        <v>1.015306746187982</v>
+        <v>1.039390470741744</v>
       </c>
       <c r="E25">
-        <v>1.001004388277808</v>
+        <v>1.035988427493246</v>
       </c>
       <c r="F25">
-        <v>1.018759630245946</v>
+        <v>1.048112258648245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042354335387419</v>
+        <v>1.035109231997862</v>
       </c>
       <c r="J25">
-        <v>1.016878000037583</v>
+        <v>1.037887002365135</v>
       </c>
       <c r="K25">
-        <v>1.027672002330385</v>
+        <v>1.042431758784876</v>
       </c>
       <c r="L25">
-        <v>1.013587132395424</v>
+        <v>1.039040364720527</v>
       </c>
       <c r="M25">
-        <v>1.031073543345499</v>
+        <v>1.051126590172152</v>
       </c>
       <c r="N25">
-        <v>1.018322083435172</v>
+        <v>1.039360920955797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033704477849932</v>
+        <v>0.9990438556871283</v>
       </c>
       <c r="D2">
-        <v>1.040454095084078</v>
+        <v>1.020346054550964</v>
       </c>
       <c r="E2">
-        <v>1.037347739083005</v>
+        <v>1.007225857317301</v>
       </c>
       <c r="F2">
-        <v>1.049369600783932</v>
+        <v>1.024583797659418</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035357102243254</v>
+        <v>1.043996142236392</v>
       </c>
       <c r="J2">
-        <v>1.038827742878673</v>
+        <v>1.021253202523933</v>
       </c>
       <c r="K2">
-        <v>1.043236398255807</v>
+        <v>1.031529030870315</v>
       </c>
       <c r="L2">
-        <v>1.04013888146677</v>
+        <v>1.018585434071312</v>
       </c>
       <c r="M2">
-        <v>1.052126849879535</v>
+        <v>1.035710944403486</v>
       </c>
       <c r="N2">
-        <v>1.040302997428768</v>
+        <v>1.022703499210896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034744829903986</v>
+        <v>1.003945927701661</v>
       </c>
       <c r="D3">
-        <v>1.041226758718673</v>
+        <v>1.023900697778949</v>
       </c>
       <c r="E3">
-        <v>1.038336371803252</v>
+        <v>1.01161928220339</v>
       </c>
       <c r="F3">
-        <v>1.050283604881784</v>
+        <v>1.028695572704359</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035534362075435</v>
+        <v>1.045130330896932</v>
       </c>
       <c r="J3">
-        <v>1.039510459682119</v>
+        <v>1.02432959771284</v>
       </c>
       <c r="K3">
-        <v>1.043819587881565</v>
+        <v>1.034236632017739</v>
       </c>
       <c r="L3">
-        <v>1.040936829677618</v>
+        <v>1.022105619847089</v>
       </c>
       <c r="M3">
-        <v>1.052852823457393</v>
+        <v>1.038973995729336</v>
       </c>
       <c r="N3">
-        <v>1.040986683768384</v>
+        <v>1.02578426323384</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035418416309605</v>
+        <v>1.007051261111018</v>
       </c>
       <c r="D4">
-        <v>1.041726893472858</v>
+        <v>1.026155101340724</v>
       </c>
       <c r="E4">
-        <v>1.038976844590581</v>
+        <v>1.014408209918601</v>
       </c>
       <c r="F4">
-        <v>1.050875513135181</v>
+        <v>1.03130502314815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035647802142055</v>
+        <v>1.045838446259898</v>
       </c>
       <c r="J4">
-        <v>1.039952061307971</v>
+        <v>1.026276298742341</v>
       </c>
       <c r="K4">
-        <v>1.044196461196129</v>
+        <v>1.035947781904462</v>
       </c>
       <c r="L4">
-        <v>1.04145330439039</v>
+        <v>1.024335795900843</v>
       </c>
       <c r="M4">
-        <v>1.0533224322373</v>
+        <v>1.041039753325584</v>
       </c>
       <c r="N4">
-        <v>1.041428912519197</v>
+        <v>1.027733728802092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035701689674384</v>
+        <v>1.008341399296814</v>
       </c>
       <c r="D5">
-        <v>1.04193718974466</v>
+        <v>1.027092276249061</v>
       </c>
       <c r="E5">
-        <v>1.039246280863105</v>
+        <v>1.01556824597504</v>
       </c>
       <c r="F5">
-        <v>1.051124466812794</v>
+        <v>1.032390215832396</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035695190564808</v>
+        <v>1.04613010709343</v>
       </c>
       <c r="J5">
-        <v>1.040137671312515</v>
+        <v>1.027084525270622</v>
       </c>
       <c r="K5">
-        <v>1.044354780871201</v>
+        <v>1.036657670450241</v>
       </c>
       <c r="L5">
-        <v>1.041670465350216</v>
+        <v>1.025262355712252</v>
       </c>
       <c r="M5">
-        <v>1.053519820292201</v>
+        <v>1.041897619214275</v>
       </c>
       <c r="N5">
-        <v>1.041614786111238</v>
+        <v>1.028543103104748</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035749258236136</v>
+        <v>1.008557136490596</v>
       </c>
       <c r="D6">
-        <v>1.041972501708105</v>
+        <v>1.027249022009503</v>
       </c>
       <c r="E6">
-        <v>1.039291531021201</v>
+        <v>1.015762305710931</v>
       </c>
       <c r="F6">
-        <v>1.051166273971079</v>
+        <v>1.032571743228087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035703129581348</v>
+        <v>1.046178728538776</v>
       </c>
       <c r="J6">
-        <v>1.040168833726378</v>
+        <v>1.027219643750974</v>
       </c>
       <c r="K6">
-        <v>1.044381356508918</v>
+        <v>1.036776316462852</v>
       </c>
       <c r="L6">
-        <v>1.041706929664016</v>
+        <v>1.025417294850153</v>
       </c>
       <c r="M6">
-        <v>1.053552960510373</v>
+        <v>1.042041048215859</v>
       </c>
       <c r="N6">
-        <v>1.041645992779302</v>
+        <v>1.028678413468841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035422201038863</v>
+        <v>1.007068559509712</v>
       </c>
       <c r="D7">
-        <v>1.041729703307519</v>
+        <v>1.026167665009635</v>
       </c>
       <c r="E7">
-        <v>1.038980444098951</v>
+        <v>1.014423758600531</v>
       </c>
       <c r="F7">
-        <v>1.05087883921405</v>
+        <v>1.031319569445893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035648436534769</v>
+        <v>1.045842366961653</v>
       </c>
       <c r="J7">
-        <v>1.039954541593163</v>
+        <v>1.026287137800821</v>
       </c>
       <c r="K7">
-        <v>1.044198577135401</v>
+        <v>1.035957304328409</v>
       </c>
       <c r="L7">
-        <v>1.041456205969084</v>
+        <v>1.02434821937804</v>
       </c>
       <c r="M7">
-        <v>1.053325069886604</v>
+        <v>1.041051257285773</v>
       </c>
       <c r="N7">
-        <v>1.041431396326678</v>
+        <v>1.027744583253278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034055984823216</v>
+        <v>1.000714707987632</v>
       </c>
       <c r="D8">
-        <v>1.040715184629612</v>
+        <v>1.021557046537014</v>
       </c>
       <c r="E8">
-        <v>1.037681694056214</v>
+        <v>1.008722094064697</v>
       </c>
       <c r="F8">
-        <v>1.049678391406539</v>
+        <v>1.025984242639803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035417268456694</v>
+        <v>1.044384872005186</v>
       </c>
       <c r="J8">
-        <v>1.039058503368613</v>
+        <v>1.022302198380756</v>
       </c>
       <c r="K8">
-        <v>1.04343359082056</v>
+        <v>1.032452721410069</v>
       </c>
       <c r="L8">
-        <v>1.040408520587768</v>
+        <v>1.019785201113814</v>
       </c>
       <c r="M8">
-        <v>1.052372225497585</v>
+        <v>1.036823378322093</v>
       </c>
       <c r="N8">
-        <v>1.040534085625072</v>
+        <v>1.023753984762158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031651682801451</v>
+        <v>0.9889789699738971</v>
       </c>
       <c r="D9">
-        <v>1.03892881731193</v>
+        <v>1.013065404357546</v>
       </c>
       <c r="E9">
-        <v>1.035398994045857</v>
+        <v>0.9982393622950693</v>
       </c>
       <c r="F9">
-        <v>1.047566819644705</v>
+        <v>1.016170851241518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035000296673484</v>
+        <v>1.041612387084818</v>
       </c>
       <c r="J9">
-        <v>1.037478355992436</v>
+        <v>1.014927003247573</v>
       </c>
       <c r="K9">
-        <v>1.042081870418607</v>
+        <v>1.025950002318265</v>
       </c>
       <c r="L9">
-        <v>1.038563533629493</v>
+        <v>1.011361069350843</v>
       </c>
       <c r="M9">
-        <v>1.050692120972176</v>
+        <v>1.02900690485698</v>
       </c>
       <c r="N9">
-        <v>1.038951694258376</v>
+        <v>1.016368316005939</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030050944233162</v>
+        <v>0.9807488688230396</v>
       </c>
       <c r="D10">
-        <v>1.037738868172419</v>
+        <v>1.007131763426523</v>
       </c>
       <c r="E10">
-        <v>1.033881178768442</v>
+        <v>0.9909239472873187</v>
       </c>
       <c r="F10">
-        <v>1.0461616992223</v>
+        <v>1.00932159276304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034715867936504</v>
+        <v>1.03961667803274</v>
       </c>
       <c r="J10">
-        <v>1.036424141642261</v>
+        <v>1.009747667644163</v>
       </c>
       <c r="K10">
-        <v>1.041178265458479</v>
+        <v>1.021373434616307</v>
       </c>
       <c r="L10">
-        <v>1.037334364761797</v>
+        <v>1.005459029344371</v>
       </c>
       <c r="M10">
-        <v>1.049571379839915</v>
+        <v>1.023524558199834</v>
       </c>
       <c r="N10">
-        <v>1.037895982802904</v>
+        <v>1.011181625151894</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029358314123711</v>
+        <v>0.9770781245073236</v>
       </c>
       <c r="D11">
-        <v>1.03722384729763</v>
+        <v>1.004491540115112</v>
       </c>
       <c r="E11">
-        <v>1.033224901501573</v>
+        <v>0.9876704690189306</v>
       </c>
       <c r="F11">
-        <v>1.045553893807326</v>
+        <v>1.006275662345473</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034591182574201</v>
+        <v>1.038715091456347</v>
       </c>
       <c r="J11">
-        <v>1.035967476051817</v>
+        <v>1.007436579207315</v>
       </c>
       <c r="K11">
-        <v>1.04078641976899</v>
+        <v>1.019329246761556</v>
       </c>
       <c r="L11">
-        <v>1.036802323388899</v>
+        <v>1.002828709141437</v>
       </c>
       <c r="M11">
-        <v>1.049085937119783</v>
+        <v>1.021080191412646</v>
       </c>
       <c r="N11">
-        <v>1.037438668694942</v>
+        <v>1.008867254704381</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029101115706081</v>
+        <v>0.9756975734832363</v>
       </c>
       <c r="D12">
-        <v>1.037032581829761</v>
+        <v>1.003499611967809</v>
       </c>
       <c r="E12">
-        <v>1.032981273754749</v>
+        <v>0.9864483175757287</v>
       </c>
       <c r="F12">
-        <v>1.045328222021445</v>
+        <v>1.00513155047838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034544639978474</v>
+        <v>1.038374350012238</v>
       </c>
       <c r="J12">
-        <v>1.035797822966018</v>
+        <v>1.006567295762337</v>
       </c>
       <c r="K12">
-        <v>1.040640784488387</v>
+        <v>1.01856007066581</v>
       </c>
       <c r="L12">
-        <v>1.036604729629845</v>
+        <v>1.00183983472155</v>
       </c>
       <c r="M12">
-        <v>1.04890559961558</v>
+        <v>1.020161094036278</v>
       </c>
       <c r="N12">
-        <v>1.0372687746823</v>
+        <v>1.007996736777202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029156282233327</v>
+        <v>0.9759944956899137</v>
       </c>
       <c r="D13">
-        <v>1.037073607268303</v>
+        <v>1.003712901911201</v>
       </c>
       <c r="E13">
-        <v>1.033033526259336</v>
+        <v>0.986711104498312</v>
       </c>
       <c r="F13">
-        <v>1.04537662510787</v>
+        <v>1.005377553245088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03455463387601</v>
+        <v>1.03844770888216</v>
       </c>
       <c r="J13">
-        <v>1.035834215350055</v>
+        <v>1.006754260202464</v>
       </c>
       <c r="K13">
-        <v>1.040672027647914</v>
+        <v>1.018725516511928</v>
       </c>
       <c r="L13">
-        <v>1.03664711279163</v>
+        <v>1.00205249887055</v>
       </c>
       <c r="M13">
-        <v>1.048944283627113</v>
+        <v>1.020358757631351</v>
       </c>
       <c r="N13">
-        <v>1.037305218747697</v>
+        <v>1.008183966728279</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029337052486791</v>
+        <v>0.976964362008352</v>
       </c>
       <c r="D14">
-        <v>1.037208036490287</v>
+        <v>1.004409779634088</v>
       </c>
       <c r="E14">
-        <v>1.03320476023837</v>
+        <v>0.9875697289883001</v>
       </c>
       <c r="F14">
-        <v>1.045535237780034</v>
+        <v>1.006181353217455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03458734001625</v>
+        <v>1.038687046423561</v>
       </c>
       <c r="J14">
-        <v>1.035953453026032</v>
+        <v>1.007364948568411</v>
       </c>
       <c r="K14">
-        <v>1.040774383269135</v>
+        <v>1.019265870768077</v>
       </c>
       <c r="L14">
-        <v>1.036785989610171</v>
+        <v>1.002747214174025</v>
       </c>
       <c r="M14">
-        <v>1.049071030819424</v>
+        <v>1.021004449409352</v>
       </c>
       <c r="N14">
-        <v>1.037424625754851</v>
+        <v>1.008795522341754</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029448440979431</v>
+        <v>0.9775596354119062</v>
       </c>
       <c r="D15">
-        <v>1.037290867597112</v>
+        <v>1.00483764271972</v>
       </c>
       <c r="E15">
-        <v>1.033310282091706</v>
+        <v>0.9880969212829461</v>
       </c>
       <c r="F15">
-        <v>1.045632976792896</v>
+        <v>1.0066748946631</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034607461027341</v>
+        <v>1.038833727608016</v>
       </c>
       <c r="J15">
-        <v>1.036026915709501</v>
+        <v>1.007739759474382</v>
       </c>
       <c r="K15">
-        <v>1.040837436522308</v>
+        <v>1.019597477433914</v>
       </c>
       <c r="L15">
-        <v>1.036871560205199</v>
+        <v>1.003173660350486</v>
       </c>
       <c r="M15">
-        <v>1.049149120993159</v>
+        <v>1.021400786310921</v>
       </c>
       <c r="N15">
-        <v>1.037498192763757</v>
+        <v>1.009170865522201</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.030096922359469</v>
+        <v>0.9809901457793859</v>
       </c>
       <c r="D16">
-        <v>1.037773053440218</v>
+        <v>1.00730544389317</v>
       </c>
       <c r="E16">
-        <v>1.033924753728515</v>
+        <v>0.9911379969602766</v>
       </c>
       <c r="F16">
-        <v>1.046202050427316</v>
+        <v>1.009521995818491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034724110774606</v>
+        <v>1.039675705617329</v>
       </c>
       <c r="J16">
-        <v>1.03645444520023</v>
+        <v>1.009899558497256</v>
       </c>
       <c r="K16">
-        <v>1.041204258824255</v>
+        <v>1.021507743313272</v>
       </c>
       <c r="L16">
-        <v>1.037369678787417</v>
+        <v>1.005631968200698</v>
       </c>
       <c r="M16">
-        <v>1.049603593883906</v>
+        <v>1.023685250860898</v>
       </c>
       <c r="N16">
-        <v>1.037926329395401</v>
+        <v>1.011333731707421</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030503831588475</v>
+        <v>0.9831126776049732</v>
       </c>
       <c r="D17">
-        <v>1.03807557943216</v>
+        <v>1.008834049312311</v>
       </c>
       <c r="E17">
-        <v>1.034310449458</v>
+        <v>0.9930220743419745</v>
       </c>
       <c r="F17">
-        <v>1.046559182184841</v>
+        <v>1.011285985622414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034796873807541</v>
+        <v>1.040193678748745</v>
       </c>
       <c r="J17">
-        <v>1.036722574268114</v>
+        <v>1.011235643984818</v>
       </c>
       <c r="K17">
-        <v>1.041434202238134</v>
+        <v>1.02268893852894</v>
       </c>
       <c r="L17">
-        <v>1.037682188485174</v>
+        <v>1.00715356816106</v>
       </c>
       <c r="M17">
-        <v>1.049888631899171</v>
+        <v>1.025098982628465</v>
       </c>
       <c r="N17">
-        <v>1.038194839237316</v>
+        <v>1.012671714589627</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03074122311853</v>
+        <v>0.9843404558690899</v>
       </c>
       <c r="D18">
-        <v>1.038252060333225</v>
+        <v>1.009718857606422</v>
       </c>
       <c r="E18">
-        <v>1.034535510559544</v>
+        <v>0.9941127956695316</v>
       </c>
       <c r="F18">
-        <v>1.04676755095332</v>
+        <v>1.012307205232185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034839168009071</v>
+        <v>1.040492208431173</v>
       </c>
       <c r="J18">
-        <v>1.036878951649815</v>
+        <v>1.012008400636861</v>
       </c>
       <c r="K18">
-        <v>1.041568268456369</v>
+        <v>1.023371913480552</v>
       </c>
       <c r="L18">
-        <v>1.037864489063584</v>
+        <v>1.008033929651831</v>
       </c>
       <c r="M18">
-        <v>1.050054874802932</v>
+        <v>1.025916828816509</v>
       </c>
       <c r="N18">
-        <v>1.038351438692836</v>
+        <v>1.013445568644751</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030822175678891</v>
+        <v>0.9847573852877505</v>
       </c>
       <c r="D19">
-        <v>1.038312239566665</v>
+        <v>1.010019417579207</v>
       </c>
       <c r="E19">
-        <v>1.034612266047957</v>
+        <v>0.9944833299902187</v>
       </c>
       <c r="F19">
-        <v>1.046838609443679</v>
+        <v>1.012654130788979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034853564253263</v>
+        <v>1.040593396176147</v>
       </c>
       <c r="J19">
-        <v>1.036932269268092</v>
+        <v>1.012270794587193</v>
       </c>
       <c r="K19">
-        <v>1.041613972074625</v>
+        <v>1.023603787317332</v>
       </c>
       <c r="L19">
-        <v>1.03792665204972</v>
+        <v>1.008332913848345</v>
       </c>
       <c r="M19">
-        <v>1.0501115567792</v>
+        <v>1.026194563098177</v>
       </c>
       <c r="N19">
-        <v>1.038404832028247</v>
+        <v>1.01370833522459</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030460169086556</v>
+        <v>0.982886018032208</v>
       </c>
       <c r="D20">
-        <v>1.038043118911149</v>
+        <v>1.00867075195354</v>
       </c>
       <c r="E20">
-        <v>1.034269058507526</v>
+        <v>0.9928207872020558</v>
       </c>
       <c r="F20">
-        <v>1.046520859129256</v>
+        <v>1.011097525911795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034789082250447</v>
+        <v>1.040138478607407</v>
       </c>
       <c r="J20">
-        <v>1.036693808391014</v>
+        <v>1.011092977080246</v>
       </c>
       <c r="K20">
-        <v>1.041409537261955</v>
+        <v>1.022562831057905</v>
       </c>
       <c r="L20">
-        <v>1.037648657187335</v>
+        <v>1.006991060117586</v>
       </c>
       <c r="M20">
-        <v>1.049858051558493</v>
+        <v>1.024948005705127</v>
       </c>
       <c r="N20">
-        <v>1.038166032509371</v>
+        <v>1.012528845081686</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029283818074887</v>
+        <v>0.9766792401844857</v>
       </c>
       <c r="D21">
-        <v>1.037168449427863</v>
+        <v>1.004204881410251</v>
       </c>
       <c r="E21">
-        <v>1.033154332151144</v>
+        <v>0.9873172691308155</v>
       </c>
       <c r="F21">
-        <v>1.045488527693495</v>
+        <v>1.005945010901141</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034577715189166</v>
+        <v>1.038616730948587</v>
       </c>
       <c r="J21">
-        <v>1.035918341248179</v>
+        <v>1.00718542012417</v>
       </c>
       <c r="K21">
-        <v>1.040744244468459</v>
+        <v>1.019107026532689</v>
       </c>
       <c r="L21">
-        <v>1.036745093013538</v>
+        <v>1.002542970457178</v>
       </c>
       <c r="M21">
-        <v>1.049033707544574</v>
+        <v>1.020814621817481</v>
       </c>
       <c r="N21">
-        <v>1.037389464114246</v>
+        <v>1.008615738946528</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028544634892505</v>
+        <v>0.9726774651500841</v>
       </c>
       <c r="D22">
-        <v>1.036618719998315</v>
+        <v>1.001331711030694</v>
       </c>
       <c r="E22">
-        <v>1.032454286242269</v>
+        <v>0.983777506617484</v>
       </c>
       <c r="F22">
-        <v>1.044840005454605</v>
+        <v>1.002631468270016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034443496149948</v>
+        <v>1.037625963758319</v>
       </c>
       <c r="J22">
-        <v>1.035430617412739</v>
+        <v>1.004665541682227</v>
       </c>
       <c r="K22">
-        <v>1.0403254492234</v>
+        <v>1.016876832547409</v>
       </c>
       <c r="L22">
-        <v>1.036177160740331</v>
+        <v>0.9996773330052042</v>
       </c>
       <c r="M22">
-        <v>1.048515280142107</v>
+        <v>1.018150974885906</v>
       </c>
       <c r="N22">
-        <v>1.036901047655016</v>
+        <v>1.006092281988164</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02893644858312</v>
+        <v>0.974808647767652</v>
       </c>
       <c r="D23">
-        <v>1.036910121759466</v>
+        <v>1.002861226720299</v>
       </c>
       <c r="E23">
-        <v>1.032825315248924</v>
+        <v>0.9856618067760202</v>
       </c>
       <c r="F23">
-        <v>1.045183747352199</v>
+        <v>1.004395288331197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034514773605094</v>
+        <v>1.038154490320044</v>
       </c>
       <c r="J23">
-        <v>1.035689183759354</v>
+        <v>1.006007552897516</v>
       </c>
       <c r="K23">
-        <v>1.040547507626772</v>
+        <v>1.01806471170715</v>
       </c>
       <c r="L23">
-        <v>1.03647821568003</v>
+        <v>1.001203221395774</v>
       </c>
       <c r="M23">
-        <v>1.048790120356216</v>
+        <v>1.019569368147698</v>
       </c>
       <c r="N23">
-        <v>1.037159981195502</v>
+        <v>1.007436199013309</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03047989814251</v>
+        <v>0.9829884673664233</v>
       </c>
       <c r="D24">
-        <v>1.038057786353542</v>
+        <v>1.008744559977279</v>
       </c>
       <c r="E24">
-        <v>1.034287761014254</v>
+        <v>0.9929117655709061</v>
       </c>
       <c r="F24">
-        <v>1.046538175483571</v>
+        <v>1.011182706445179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034792603374685</v>
+        <v>1.040163432268965</v>
       </c>
       <c r="J24">
-        <v>1.036706806507541</v>
+        <v>1.011157462342593</v>
       </c>
       <c r="K24">
-        <v>1.041420682475684</v>
+        <v>1.02261983209072</v>
       </c>
       <c r="L24">
-        <v>1.037663808478893</v>
+        <v>1.007064512593864</v>
       </c>
       <c r="M24">
-        <v>1.049871869544337</v>
+        <v>1.025016246526331</v>
       </c>
       <c r="N24">
-        <v>1.038179049084715</v>
+        <v>1.012593421920501</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03227287826072</v>
+        <v>0.9920811646793478</v>
       </c>
       <c r="D25">
-        <v>1.039390470741744</v>
+        <v>1.015306746187981</v>
       </c>
       <c r="E25">
-        <v>1.035988427493246</v>
+        <v>1.001004388277807</v>
       </c>
       <c r="F25">
-        <v>1.048112258648245</v>
+        <v>1.018759630245945</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035109231997862</v>
+        <v>1.042354335387419</v>
       </c>
       <c r="J25">
-        <v>1.037887002365135</v>
+        <v>1.016878000037582</v>
       </c>
       <c r="K25">
-        <v>1.042431758784876</v>
+        <v>1.027672002330384</v>
       </c>
       <c r="L25">
-        <v>1.039040364720527</v>
+        <v>1.013587132395423</v>
       </c>
       <c r="M25">
-        <v>1.051126590172152</v>
+        <v>1.031073543345498</v>
       </c>
       <c r="N25">
-        <v>1.039360920955797</v>
+        <v>1.018322083435172</v>
       </c>
     </row>
   </sheetData>
